--- a/data/yahoofinance/TLT.xlsx
+++ b/data/yahoofinance/TLT.xlsx
@@ -442,7 +442,7 @@
         <v>98.30999755859375</v>
       </c>
       <c r="F2">
-        <v>95.75685882568359</v>
+        <v>95.44841766357422</v>
       </c>
       <c r="G2">
         <v>47797400</v>
@@ -465,7 +465,7 @@
         <v>98.72000122070312</v>
       </c>
       <c r="F3">
-        <v>96.15621948242188</v>
+        <v>95.84647369384766</v>
       </c>
       <c r="G3">
         <v>58159500</v>
@@ -488,7 +488,7 @@
         <v>97.22000122070312</v>
       </c>
       <c r="F4">
-        <v>94.69516754150391</v>
+        <v>94.39014434814453</v>
       </c>
       <c r="G4">
         <v>52604500</v>
@@ -511,7 +511,7 @@
         <v>96.29000091552734</v>
       </c>
       <c r="F5">
-        <v>93.78932189941406</v>
+        <v>93.48720550537109</v>
       </c>
       <c r="G5">
         <v>45883000</v>
@@ -534,7 +534,7 @@
         <v>97.23999786376953</v>
       </c>
       <c r="F6">
-        <v>94.71464538574219</v>
+        <v>94.40955352783203</v>
       </c>
       <c r="G6">
         <v>39485800</v>
@@ -557,7 +557,7 @@
         <v>96.62000274658203</v>
       </c>
       <c r="F7">
-        <v>94.11075592041016</v>
+        <v>93.80760955810547</v>
       </c>
       <c r="G7">
         <v>34374000</v>
@@ -580,7 +580,7 @@
         <v>96.16999816894531</v>
       </c>
       <c r="F8">
-        <v>93.67241668701172</v>
+        <v>93.37069702148438</v>
       </c>
       <c r="G8">
         <v>48227800</v>
@@ -603,7 +603,7 @@
         <v>96.70999908447266</v>
       </c>
       <c r="F9">
-        <v>94.19841003417969</v>
+        <v>93.89498138427734</v>
       </c>
       <c r="G9">
         <v>78858900</v>
@@ -626,7 +626,7 @@
         <v>96.51999664306641</v>
       </c>
       <c r="F10">
-        <v>94.01334381103516</v>
+        <v>93.71050262451172</v>
       </c>
       <c r="G10">
         <v>38867100</v>
@@ -649,7 +649,7 @@
         <v>94.81999969482422</v>
       </c>
       <c r="F11">
-        <v>92.35748291015625</v>
+        <v>92.05998992919922</v>
       </c>
       <c r="G11">
         <v>61716700</v>
@@ -672,7 +672,7 @@
         <v>94.66999816894531</v>
       </c>
       <c r="F12">
-        <v>92.21139526367188</v>
+        <v>91.91436004638672</v>
       </c>
       <c r="G12">
         <v>55506800</v>
@@ -695,7 +695,7 @@
         <v>93.79000091552734</v>
       </c>
       <c r="F13">
-        <v>91.354248046875</v>
+        <v>91.05998229980469</v>
       </c>
       <c r="G13">
         <v>77339100</v>
@@ -718,7 +718,7 @@
         <v>94.08999633789062</v>
       </c>
       <c r="F14">
-        <v>91.64645385742188</v>
+        <v>91.35124969482422</v>
       </c>
       <c r="G14">
         <v>47020300</v>
@@ -741,7 +741,7 @@
         <v>94.65000152587891</v>
       </c>
       <c r="F15">
-        <v>92.19190979003906</v>
+        <v>91.89492797851562</v>
       </c>
       <c r="G15">
         <v>35756400</v>
@@ -764,7 +764,7 @@
         <v>93.90000152587891</v>
       </c>
       <c r="F16">
-        <v>91.46138000488281</v>
+        <v>91.16678619384766</v>
       </c>
       <c r="G16">
         <v>35786700</v>
@@ -787,7 +787,7 @@
         <v>93.34999847412109</v>
       </c>
       <c r="F17">
-        <v>90.92566680908203</v>
+        <v>90.63276672363281</v>
       </c>
       <c r="G17">
         <v>54574900</v>
@@ -810,7 +810,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F18">
-        <v>91.51983642578125</v>
+        <v>91.22501373291016</v>
       </c>
       <c r="G18">
         <v>57019400</v>
@@ -833,7 +833,7 @@
         <v>93.77999877929688</v>
       </c>
       <c r="F19">
-        <v>91.34449768066406</v>
+        <v>91.05026245117188</v>
       </c>
       <c r="G19">
         <v>29276900</v>
@@ -856,7 +856,7 @@
         <v>94.86000061035156</v>
       </c>
       <c r="F20">
-        <v>92.39646148681641</v>
+        <v>92.09883117675781</v>
       </c>
       <c r="G20">
         <v>38243600</v>
@@ -879,7 +879,7 @@
         <v>95.72000122070312</v>
       </c>
       <c r="F21">
-        <v>93.23411560058594</v>
+        <v>92.93379211425781</v>
       </c>
       <c r="G21">
         <v>40151400</v>
@@ -902,7 +902,7 @@
         <v>96.66000366210938</v>
       </c>
       <c r="F22">
-        <v>94.14971160888672</v>
+        <v>93.84642791748047</v>
       </c>
       <c r="G22">
         <v>80646700</v>
@@ -925,7 +925,7 @@
         <v>98.23999786376953</v>
       </c>
       <c r="F23">
-        <v>95.99655151367188</v>
+        <v>95.68732452392578</v>
       </c>
       <c r="G23">
         <v>84291200</v>
@@ -948,7 +948,7 @@
         <v>96.06999969482422</v>
       </c>
       <c r="F24">
-        <v>93.87612152099609</v>
+        <v>93.57370758056641</v>
       </c>
       <c r="G24">
         <v>63803000</v>
@@ -971,7 +971,7 @@
         <v>94.12999725341797</v>
       </c>
       <c r="F25">
-        <v>91.98041534423828</v>
+        <v>91.68412017822266</v>
       </c>
       <c r="G25">
         <v>53827400</v>
@@ -994,7 +994,7 @@
         <v>95.05000305175781</v>
       </c>
       <c r="F26">
-        <v>92.87940216064453</v>
+        <v>92.58020782470703</v>
       </c>
       <c r="G26">
         <v>33411500</v>
@@ -1017,7 +1017,7 @@
         <v>94.58999633789062</v>
       </c>
       <c r="F27">
-        <v>92.42990112304688</v>
+        <v>92.13216400146484</v>
       </c>
       <c r="G27">
         <v>40120200</v>
@@ -1040,7 +1040,7 @@
         <v>94.04000091552734</v>
       </c>
       <c r="F28">
-        <v>91.89247131347656</v>
+        <v>91.59645843505859</v>
       </c>
       <c r="G28">
         <v>50087700</v>
@@ -1063,7 +1063,7 @@
         <v>93.84999847412109</v>
       </c>
       <c r="F29">
-        <v>91.70680236816406</v>
+        <v>91.41139984130859</v>
       </c>
       <c r="G29">
         <v>27951300</v>
@@ -1086,7 +1086,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F30">
-        <v>91.81430053710938</v>
+        <v>91.51853942871094</v>
       </c>
       <c r="G30">
         <v>27890300</v>
@@ -1109,7 +1109,7 @@
         <v>92.34999847412109</v>
       </c>
       <c r="F31">
-        <v>90.24105834960938</v>
+        <v>89.95037078857422</v>
       </c>
       <c r="G31">
         <v>49768500</v>
@@ -1132,7 +1132,7 @@
         <v>92.81999969482422</v>
       </c>
       <c r="F32">
-        <v>90.70032501220703</v>
+        <v>90.40815734863281</v>
       </c>
       <c r="G32">
         <v>44191600</v>
@@ -1155,7 +1155,7 @@
         <v>93.30000305175781</v>
       </c>
       <c r="F33">
-        <v>91.16937255859375</v>
+        <v>90.87568664550781</v>
       </c>
       <c r="G33">
         <v>49598500</v>
@@ -1178,7 +1178,7 @@
         <v>92.76000213623047</v>
       </c>
       <c r="F34">
-        <v>90.64168548583984</v>
+        <v>90.34972381591797</v>
       </c>
       <c r="G34">
         <v>33100500</v>
@@ -1201,7 +1201,7 @@
         <v>92.83999633789062</v>
       </c>
       <c r="F35">
-        <v>90.71985626220703</v>
+        <v>90.42764282226562</v>
       </c>
       <c r="G35">
         <v>24469300</v>
@@ -1224,7 +1224,7 @@
         <v>92.18000030517578</v>
       </c>
       <c r="F36">
-        <v>90.07493591308594</v>
+        <v>89.78478240966797</v>
       </c>
       <c r="G36">
         <v>36404200</v>
@@ -1247,7 +1247,7 @@
         <v>92.62999725341797</v>
       </c>
       <c r="F37">
-        <v>90.51467132568359</v>
+        <v>90.22309875488281</v>
       </c>
       <c r="G37">
         <v>45190700</v>
@@ -1270,7 +1270,7 @@
         <v>93.87000274658203</v>
       </c>
       <c r="F38">
-        <v>91.72635650634766</v>
+        <v>91.43087768554688</v>
       </c>
       <c r="G38">
         <v>38406700</v>
@@ -1293,7 +1293,7 @@
         <v>93.58999633789062</v>
       </c>
       <c r="F39">
-        <v>91.45274353027344</v>
+        <v>91.15814208984375</v>
       </c>
       <c r="G39">
         <v>27855000</v>
@@ -1316,7 +1316,7 @@
         <v>92.93000030517578</v>
       </c>
       <c r="F40">
-        <v>90.80780792236328</v>
+        <v>90.51529693603516</v>
       </c>
       <c r="G40">
         <v>30242000</v>
@@ -1339,7 +1339,7 @@
         <v>93.51999664306641</v>
       </c>
       <c r="F41">
-        <v>91.38433074951172</v>
+        <v>91.08997344970703</v>
       </c>
       <c r="G41">
         <v>34574200</v>
@@ -1362,7 +1362,7 @@
         <v>94.18000030517578</v>
       </c>
       <c r="F42">
-        <v>92.02927398681641</v>
+        <v>91.73282623291016</v>
       </c>
       <c r="G42">
         <v>51038600</v>
@@ -1385,7 +1385,7 @@
         <v>94.47000122070312</v>
       </c>
       <c r="F43">
-        <v>92.60270690917969</v>
+        <v>92.30441284179688</v>
       </c>
       <c r="G43">
         <v>45822800</v>
@@ -1408,7 +1408,7 @@
         <v>94.08999633789062</v>
       </c>
       <c r="F44">
-        <v>92.23021697998047</v>
+        <v>91.93311309814453</v>
       </c>
       <c r="G44">
         <v>23864200</v>
@@ -1431,7 +1431,7 @@
         <v>95.43000030517578</v>
       </c>
       <c r="F45">
-        <v>93.54373168945312</v>
+        <v>93.24240112304688</v>
       </c>
       <c r="G45">
         <v>37721900</v>
@@ -1454,7 +1454,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="F46">
-        <v>94.09266662597656</v>
+        <v>93.78957366943359</v>
       </c>
       <c r="G46">
         <v>40571600</v>
@@ -1477,7 +1477,7 @@
         <v>95.90000152587891</v>
       </c>
       <c r="F47">
-        <v>94.00444793701172</v>
+        <v>93.70162963867188</v>
       </c>
       <c r="G47">
         <v>39075000</v>
@@ -1500,7 +1500,7 @@
         <v>95.73000335693359</v>
       </c>
       <c r="F48">
-        <v>93.83779907226562</v>
+        <v>93.53553009033203</v>
       </c>
       <c r="G48">
         <v>25014500</v>
@@ -1523,7 +1523,7 @@
         <v>95.68000030517578</v>
       </c>
       <c r="F49">
-        <v>93.78878784179688</v>
+        <v>93.48667144775391</v>
       </c>
       <c r="G49">
         <v>17787900</v>
@@ -1546,7 +1546,7 @@
         <v>94.87999725341797</v>
       </c>
       <c r="F50">
-        <v>93.00460052490234</v>
+        <v>92.70500946044922</v>
       </c>
       <c r="G50">
         <v>29566000</v>
@@ -1569,7 +1569,7 @@
         <v>94.41999816894531</v>
       </c>
       <c r="F51">
-        <v>92.55368041992188</v>
+        <v>92.25556945800781</v>
       </c>
       <c r="G51">
         <v>38270100</v>
@@ -1592,7 +1592,7 @@
         <v>92.97000122070312</v>
       </c>
       <c r="F52">
-        <v>91.13235473632812</v>
+        <v>90.83879089355469</v>
       </c>
       <c r="G52">
         <v>58365600</v>
@@ -1615,7 +1615,7 @@
         <v>92.94000244140625</v>
       </c>
       <c r="F53">
-        <v>91.10294342041016</v>
+        <v>90.80950164794922</v>
       </c>
       <c r="G53">
         <v>34992700</v>
@@ -1638,7 +1638,7 @@
         <v>92.66000366210938</v>
       </c>
       <c r="F54">
-        <v>90.8284912109375</v>
+        <v>90.53590393066406</v>
       </c>
       <c r="G54">
         <v>29519500</v>
@@ -1661,7 +1661,7 @@
         <v>92.91999816894531</v>
       </c>
       <c r="F55">
-        <v>91.08335113525391</v>
+        <v>90.78993988037109</v>
       </c>
       <c r="G55">
         <v>26953100</v>
@@ -1684,7 +1684,7 @@
         <v>92.88999938964844</v>
       </c>
       <c r="F56">
-        <v>91.05393218994141</v>
+        <v>90.76063537597656</v>
       </c>
       <c r="G56">
         <v>43460100</v>
@@ -1707,7 +1707,7 @@
         <v>93.08999633789062</v>
       </c>
       <c r="F57">
-        <v>91.24997711181641</v>
+        <v>90.95603179931641</v>
       </c>
       <c r="G57">
         <v>34276600</v>
@@ -1730,7 +1730,7 @@
         <v>93.98000335693359</v>
       </c>
       <c r="F58">
-        <v>92.12238311767578</v>
+        <v>91.82564544677734</v>
       </c>
       <c r="G58">
         <v>30258200</v>
@@ -1753,7 +1753,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="F59">
-        <v>91.66168212890625</v>
+        <v>91.36641693115234</v>
       </c>
       <c r="G59">
         <v>24011800</v>
@@ -1776,7 +1776,7 @@
         <v>93.76999664306641</v>
       </c>
       <c r="F60">
-        <v>91.91653442382812</v>
+        <v>91.62045288085938</v>
       </c>
       <c r="G60">
         <v>34423000</v>
@@ -1799,7 +1799,7 @@
         <v>94.69999694824219</v>
       </c>
       <c r="F61">
-        <v>92.82814025878906</v>
+        <v>92.52913665771484</v>
       </c>
       <c r="G61">
         <v>50157800</v>
@@ -1822,7 +1822,7 @@
         <v>94.62000274658203</v>
       </c>
       <c r="F62">
-        <v>92.74973297119141</v>
+        <v>92.45096588134766</v>
       </c>
       <c r="G62">
         <v>34540400</v>
@@ -1845,7 +1845,7 @@
         <v>92.55000305175781</v>
       </c>
       <c r="F63">
-        <v>91.02079010009766</v>
+        <v>90.72759246826172</v>
       </c>
       <c r="G63">
         <v>48945400</v>
@@ -1868,7 +1868,7 @@
         <v>92.04000091552734</v>
       </c>
       <c r="F64">
-        <v>90.51921844482422</v>
+        <v>90.22763061523438</v>
       </c>
       <c r="G64">
         <v>43086300</v>
@@ -1891,7 +1891,7 @@
         <v>92.01999664306641</v>
       </c>
       <c r="F65">
-        <v>90.49953460693359</v>
+        <v>90.20801544189453</v>
       </c>
       <c r="G65">
         <v>45494400</v>
@@ -1914,7 +1914,7 @@
         <v>92.68000030517578</v>
       </c>
       <c r="F66">
-        <v>91.14863586425781</v>
+        <v>90.85501861572266</v>
       </c>
       <c r="G66">
         <v>47957400</v>
@@ -1937,7 +1937,7 @@
         <v>91.38999938964844</v>
       </c>
       <c r="F67">
-        <v>89.87995147705078</v>
+        <v>89.59042358398438</v>
       </c>
       <c r="G67">
         <v>42466800</v>
@@ -1960,7 +1960,7 @@
         <v>91.37999725341797</v>
       </c>
       <c r="F68">
-        <v>89.87010955810547</v>
+        <v>89.58061981201172</v>
       </c>
       <c r="G68">
         <v>37879800</v>
@@ -1983,7 +1983,7 @@
         <v>92.23000335693359</v>
       </c>
       <c r="F69">
-        <v>90.70606994628906</v>
+        <v>90.41388702392578</v>
       </c>
       <c r="G69">
         <v>32537000</v>
@@ -2006,7 +2006,7 @@
         <v>90.22000122070312</v>
       </c>
       <c r="F70">
-        <v>88.72927856445312</v>
+        <v>88.44346618652344</v>
       </c>
       <c r="G70">
         <v>74368900</v>
@@ -2029,7 +2029,7 @@
         <v>89.80999755859375</v>
       </c>
       <c r="F71">
-        <v>88.32605743408203</v>
+        <v>88.04152679443359</v>
       </c>
       <c r="G71">
         <v>65751200</v>
@@ -2052,7 +2052,7 @@
         <v>90.29000091552734</v>
       </c>
       <c r="F72">
-        <v>88.79812622070312</v>
+        <v>88.51209259033203</v>
       </c>
       <c r="G72">
         <v>47869400</v>
@@ -2075,7 +2075,7 @@
         <v>88.88999938964844</v>
       </c>
       <c r="F73">
-        <v>87.42125701904297</v>
+        <v>87.13965606689453</v>
       </c>
       <c r="G73">
         <v>55993100</v>
@@ -2098,7 +2098,7 @@
         <v>88.30000305175781</v>
       </c>
       <c r="F74">
-        <v>86.84100341796875</v>
+        <v>86.561279296875</v>
       </c>
       <c r="G74">
         <v>45103200</v>
@@ -2121,7 +2121,7 @@
         <v>89.27999877929688</v>
       </c>
       <c r="F75">
-        <v>87.8048095703125</v>
+        <v>87.52197265625</v>
       </c>
       <c r="G75">
         <v>57947000</v>
@@ -2144,7 +2144,7 @@
         <v>88.83000183105469</v>
       </c>
       <c r="F76">
-        <v>87.36225891113281</v>
+        <v>87.08083343505859</v>
       </c>
       <c r="G76">
         <v>43839500</v>
@@ -2167,7 +2167,7 @@
         <v>89.15000152587891</v>
       </c>
       <c r="F77">
-        <v>87.67697143554688</v>
+        <v>87.39453887939453</v>
       </c>
       <c r="G77">
         <v>44808000</v>
@@ -2190,7 +2190,7 @@
         <v>89</v>
       </c>
       <c r="F78">
-        <v>87.52944946289062</v>
+        <v>87.24748992919922</v>
       </c>
       <c r="G78">
         <v>24969000</v>
@@ -2213,7 +2213,7 @@
         <v>89.02999877929688</v>
       </c>
       <c r="F79">
-        <v>87.55894470214844</v>
+        <v>87.27689361572266</v>
       </c>
       <c r="G79">
         <v>27222700</v>
@@ -2236,7 +2236,7 @@
         <v>88.40000152587891</v>
       </c>
       <c r="F80">
-        <v>86.93936157226562</v>
+        <v>86.65931701660156</v>
       </c>
       <c r="G80">
         <v>48986800</v>
@@ -2259,7 +2259,7 @@
         <v>87.77999877929688</v>
       </c>
       <c r="F81">
-        <v>86.32959747314453</v>
+        <v>86.05150604248047</v>
       </c>
       <c r="G81">
         <v>49282600</v>
@@ -2282,7 +2282,7 @@
         <v>88.23999786376953</v>
       </c>
       <c r="F82">
-        <v>86.78199768066406</v>
+        <v>86.50245666503906</v>
       </c>
       <c r="G82">
         <v>31589800</v>
@@ -2305,7 +2305,7 @@
         <v>88.98000335693359</v>
       </c>
       <c r="F83">
-        <v>87.50977325439453</v>
+        <v>87.22789001464844</v>
       </c>
       <c r="G83">
         <v>39228600</v>
@@ -2328,7 +2328,7 @@
         <v>88.22000122070312</v>
       </c>
       <c r="F84">
-        <v>86.76232147216797</v>
+        <v>86.48285675048828</v>
       </c>
       <c r="G84">
         <v>41054700</v>
@@ -2351,7 +2351,7 @@
         <v>88.55999755859375</v>
       </c>
       <c r="F85">
-        <v>87.40185546875</v>
+        <v>87.12030792236328</v>
       </c>
       <c r="G85">
         <v>59679500</v>
@@ -2374,7 +2374,7 @@
         <v>88.94000244140625</v>
       </c>
       <c r="F86">
-        <v>87.77689361572266</v>
+        <v>87.494140625</v>
       </c>
       <c r="G86">
         <v>58925400</v>
@@ -2397,7 +2397,7 @@
         <v>89.83999633789062</v>
       </c>
       <c r="F87">
-        <v>88.66511535644531</v>
+        <v>88.3795166015625</v>
       </c>
       <c r="G87">
         <v>50066100</v>
@@ -2420,7 +2420,7 @@
         <v>90.19000244140625</v>
       </c>
       <c r="F88">
-        <v>89.01053619384766</v>
+        <v>88.72382354736328</v>
       </c>
       <c r="G88">
         <v>23868200</v>
@@ -2443,7 +2443,7 @@
         <v>90.73999786376953</v>
       </c>
       <c r="F89">
-        <v>89.5533447265625</v>
+        <v>89.26487731933594</v>
       </c>
       <c r="G89">
         <v>30525800</v>
@@ -2466,7 +2466,7 @@
         <v>90.19000244140625</v>
       </c>
       <c r="F90">
-        <v>89.01053619384766</v>
+        <v>88.72382354736328</v>
       </c>
       <c r="G90">
         <v>31171700</v>
@@ -2489,7 +2489,7 @@
         <v>90.62999725341797</v>
       </c>
       <c r="F91">
-        <v>89.44478607177734</v>
+        <v>89.15666961669922</v>
       </c>
       <c r="G91">
         <v>39606700</v>
@@ -2512,7 +2512,7 @@
         <v>90.12000274658203</v>
       </c>
       <c r="F92">
-        <v>88.94145965576172</v>
+        <v>88.65496063232422</v>
       </c>
       <c r="G92">
         <v>21913800</v>
@@ -2535,7 +2535,7 @@
         <v>90.34999847412109</v>
       </c>
       <c r="F93">
-        <v>89.16845703125</v>
+        <v>88.88121032714844</v>
       </c>
       <c r="G93">
         <v>23157500</v>
@@ -2558,7 +2558,7 @@
         <v>90.86000061035156</v>
       </c>
       <c r="F94">
-        <v>89.67178344726562</v>
+        <v>89.38292694091797</v>
       </c>
       <c r="G94">
         <v>25746400</v>
@@ -2581,7 +2581,7 @@
         <v>92.09999847412109</v>
       </c>
       <c r="F95">
-        <v>90.89556121826172</v>
+        <v>90.60276794433594</v>
       </c>
       <c r="G95">
         <v>65142900</v>
@@ -2604,7 +2604,7 @@
         <v>92.01000213623047</v>
       </c>
       <c r="F96">
-        <v>90.80673980712891</v>
+        <v>90.51423645019531</v>
       </c>
       <c r="G96">
         <v>37902400</v>
@@ -2627,7 +2627,7 @@
         <v>91.38999938964844</v>
       </c>
       <c r="F97">
-        <v>90.19484710693359</v>
+        <v>89.90431213378906</v>
       </c>
       <c r="G97">
         <v>24755000</v>
@@ -2650,7 +2650,7 @@
         <v>91.12000274658203</v>
       </c>
       <c r="F98">
-        <v>89.92837524414062</v>
+        <v>89.63870239257812</v>
       </c>
       <c r="G98">
         <v>17922800</v>
@@ -2673,7 +2673,7 @@
         <v>91.58999633789062</v>
       </c>
       <c r="F99">
-        <v>90.39223480224609</v>
+        <v>90.10105895996094</v>
       </c>
       <c r="G99">
         <v>15334400</v>
@@ -2696,7 +2696,7 @@
         <v>91.69999694824219</v>
       </c>
       <c r="F100">
-        <v>90.50079345703125</v>
+        <v>90.20926666259766</v>
       </c>
       <c r="G100">
         <v>38073700</v>
@@ -2719,7 +2719,7 @@
         <v>91.11000061035156</v>
       </c>
       <c r="F101">
-        <v>89.91851806640625</v>
+        <v>89.62886810302734</v>
       </c>
       <c r="G101">
         <v>51294700</v>
@@ -2742,7 +2742,7 @@
         <v>91.37999725341797</v>
       </c>
       <c r="F102">
-        <v>90.18496704101562</v>
+        <v>89.89446258544922</v>
       </c>
       <c r="G102">
         <v>19151400</v>
@@ -2765,7 +2765,7 @@
         <v>90.06999969482422</v>
       </c>
       <c r="F103">
-        <v>88.89210510253906</v>
+        <v>88.60576629638672</v>
       </c>
       <c r="G103">
         <v>45973700</v>
@@ -2788,7 +2788,7 @@
         <v>88.98000335693359</v>
       </c>
       <c r="F104">
-        <v>87.81636047363281</v>
+        <v>87.53349304199219</v>
       </c>
       <c r="G104">
         <v>45508400</v>
@@ -2811,7 +2811,7 @@
         <v>89.83999633789062</v>
       </c>
       <c r="F105">
-        <v>88.66511535644531</v>
+        <v>88.3795166015625</v>
       </c>
       <c r="G105">
         <v>29571700</v>
@@ -2834,7 +2834,7 @@
         <v>90.44999694824219</v>
       </c>
       <c r="F106">
-        <v>89.26712799072266</v>
+        <v>88.97958374023438</v>
       </c>
       <c r="G106">
         <v>41308800</v>
@@ -2857,7 +2857,7 @@
         <v>91.59999847412109</v>
       </c>
       <c r="F107">
-        <v>90.71099090576172</v>
+        <v>90.41878509521484</v>
       </c>
       <c r="G107">
         <v>42272100</v>
@@ -2880,7 +2880,7 @@
         <v>92.66999816894531</v>
       </c>
       <c r="F108">
-        <v>91.77060699462891</v>
+        <v>91.47499084472656</v>
       </c>
       <c r="G108">
         <v>42581500</v>
@@ -2903,7 +2903,7 @@
         <v>93.34999847412109</v>
       </c>
       <c r="F109">
-        <v>92.44400024414062</v>
+        <v>92.14622497558594</v>
       </c>
       <c r="G109">
         <v>43153900</v>
@@ -2926,7 +2926,7 @@
         <v>93.20999908447266</v>
       </c>
       <c r="F110">
-        <v>92.30536651611328</v>
+        <v>92.00803375244141</v>
       </c>
       <c r="G110">
         <v>22891900</v>
@@ -2949,7 +2949,7 @@
         <v>91.5</v>
       </c>
       <c r="F111">
-        <v>90.61196136474609</v>
+        <v>90.32008361816406</v>
       </c>
       <c r="G111">
         <v>35240500</v>
@@ -2972,7 +2972,7 @@
         <v>90.88999938964844</v>
       </c>
       <c r="F112">
-        <v>90.00788879394531</v>
+        <v>89.71794891357422</v>
       </c>
       <c r="G112">
         <v>20593200</v>
@@ -2995,7 +2995,7 @@
         <v>91.83000183105469</v>
       </c>
       <c r="F113">
-        <v>90.93875885009766</v>
+        <v>90.64582824707031</v>
       </c>
       <c r="G113">
         <v>30329200</v>
@@ -3018,7 +3018,7 @@
         <v>92.51999664306641</v>
       </c>
       <c r="F114">
-        <v>91.62206268310547</v>
+        <v>91.32691955566406</v>
       </c>
       <c r="G114">
         <v>42554600</v>
@@ -3041,7 +3041,7 @@
         <v>93.87999725341797</v>
       </c>
       <c r="F115">
-        <v>92.96885681152344</v>
+        <v>92.66938781738281</v>
       </c>
       <c r="G115">
         <v>33093800</v>
@@ -3064,7 +3064,7 @@
         <v>94.66999816894531</v>
       </c>
       <c r="F116">
-        <v>93.75119018554688</v>
+        <v>93.44919586181641</v>
       </c>
       <c r="G116">
         <v>28776700</v>
@@ -3087,7 +3087,7 @@
         <v>93.73000335693359</v>
       </c>
       <c r="F117">
-        <v>92.82032012939453</v>
+        <v>92.52132415771484</v>
       </c>
       <c r="G117">
         <v>31040200</v>
@@ -3110,7 +3110,7 @@
         <v>94.58999633789062</v>
       </c>
       <c r="F118">
-        <v>93.67196655273438</v>
+        <v>93.37023162841797</v>
       </c>
       <c r="G118">
         <v>26881000</v>
@@ -3133,7 +3133,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F119">
-        <v>93.04808807373047</v>
+        <v>92.74835205078125</v>
       </c>
       <c r="G119">
         <v>30246300</v>
@@ -3156,7 +3156,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F120">
-        <v>93.04808807373047</v>
+        <v>92.74835205078125</v>
       </c>
       <c r="G120">
         <v>22830900</v>
@@ -3179,7 +3179,7 @@
         <v>94.33999633789062</v>
       </c>
       <c r="F121">
-        <v>93.42439270019531</v>
+        <v>93.12345886230469</v>
       </c>
       <c r="G121">
         <v>56939100</v>
@@ -3202,7 +3202,7 @@
         <v>94.5</v>
       </c>
       <c r="F122">
-        <v>93.58283996582031</v>
+        <v>93.28139495849609</v>
       </c>
       <c r="G122">
         <v>23160000</v>
@@ -3225,7 +3225,7 @@
         <v>93.15000152587891</v>
       </c>
       <c r="F123">
-        <v>92.24594879150391</v>
+        <v>91.94880676269531</v>
       </c>
       <c r="G123">
         <v>38489100</v>
@@ -3248,7 +3248,7 @@
         <v>93.51999664306641</v>
       </c>
       <c r="F124">
-        <v>92.61235046386719</v>
+        <v>92.31402587890625</v>
       </c>
       <c r="G124">
         <v>23140800</v>
@@ -3271,7 +3271,7 @@
         <v>91.77999877929688</v>
       </c>
       <c r="F125">
-        <v>90.88924407958984</v>
+        <v>90.59646606445312</v>
       </c>
       <c r="G125">
         <v>55119600</v>
@@ -3294,7 +3294,7 @@
         <v>89.91000366210938</v>
       </c>
       <c r="F126">
-        <v>89.32059478759766</v>
+        <v>89.03287506103516</v>
       </c>
       <c r="G126">
         <v>49735400</v>
@@ -3317,7 +3317,7 @@
         <v>90.61000061035156</v>
       </c>
       <c r="F127">
-        <v>90.01599884033203</v>
+        <v>89.72604370117188</v>
       </c>
       <c r="G127">
         <v>34204700</v>
@@ -3340,7 +3340,7 @@
         <v>91.80000305175781</v>
       </c>
       <c r="F128">
-        <v>91.19820404052734</v>
+        <v>90.90443420410156</v>
       </c>
       <c r="G128">
         <v>35563300</v>
@@ -3363,7 +3363,7 @@
         <v>92.55999755859375</v>
       </c>
       <c r="F129">
-        <v>91.95321655273438</v>
+        <v>91.65701293945312</v>
       </c>
       <c r="G129">
         <v>34895500</v>
@@ -3386,7 +3386,7 @@
         <v>92.76000213623047</v>
       </c>
       <c r="F130">
-        <v>92.15190887451172</v>
+        <v>91.85507202148438</v>
       </c>
       <c r="G130">
         <v>16095700</v>
@@ -3409,7 +3409,7 @@
         <v>92.34999847412109</v>
       </c>
       <c r="F131">
-        <v>91.74459838867188</v>
+        <v>91.44906616210938</v>
       </c>
       <c r="G131">
         <v>30289800</v>
@@ -3432,7 +3432,7 @@
         <v>92.63999938964844</v>
       </c>
       <c r="F132">
-        <v>92.03269195556641</v>
+        <v>91.73623657226562</v>
       </c>
       <c r="G132">
         <v>23572500</v>
@@ -3455,7 +3455,7 @@
         <v>93.54000091552734</v>
       </c>
       <c r="F133">
-        <v>92.92680358886719</v>
+        <v>92.62746429443359</v>
       </c>
       <c r="G133">
         <v>49761800</v>
@@ -3478,7 +3478,7 @@
         <v>93.94000244140625</v>
       </c>
       <c r="F134">
-        <v>93.32417297363281</v>
+        <v>93.02356719970703</v>
       </c>
       <c r="G134">
         <v>27796500</v>
@@ -3501,7 +3501,7 @@
         <v>92.86000061035156</v>
       </c>
       <c r="F135">
-        <v>92.25125885009766</v>
+        <v>91.95409393310547</v>
       </c>
       <c r="G135">
         <v>37918900</v>
@@ -3524,7 +3524,7 @@
         <v>94.16999816894531</v>
       </c>
       <c r="F136">
-        <v>93.55266571044922</v>
+        <v>93.25130462646484</v>
       </c>
       <c r="G136">
         <v>36383700</v>
@@ -3547,7 +3547,7 @@
         <v>94.19000244140625</v>
       </c>
       <c r="F137">
-        <v>93.57253265380859</v>
+        <v>93.27112579345703</v>
       </c>
       <c r="G137">
         <v>29036800</v>
@@ -3570,7 +3570,7 @@
         <v>93.47000122070312</v>
       </c>
       <c r="F138">
-        <v>92.85725402832031</v>
+        <v>92.55814361572266</v>
       </c>
       <c r="G138">
         <v>34553100</v>
@@ -3593,7 +3593,7 @@
         <v>92.91999816894531</v>
       </c>
       <c r="F139">
-        <v>92.31086730957031</v>
+        <v>92.01350402832031</v>
       </c>
       <c r="G139">
         <v>32164700</v>
@@ -3616,7 +3616,7 @@
         <v>92.65000152587891</v>
       </c>
       <c r="F140">
-        <v>92.04263305664062</v>
+        <v>91.74613952636719</v>
       </c>
       <c r="G140">
         <v>36160400</v>
@@ -3639,7 +3639,7 @@
         <v>92.51999664306641</v>
       </c>
       <c r="F141">
-        <v>91.91348266601562</v>
+        <v>91.61740112304688</v>
       </c>
       <c r="G141">
         <v>23498000</v>
@@ -3662,7 +3662,7 @@
         <v>91.51999664306641</v>
       </c>
       <c r="F142">
-        <v>90.92003631591797</v>
+        <v>90.62716674804688</v>
       </c>
       <c r="G142">
         <v>50757100</v>
@@ -3685,7 +3685,7 @@
         <v>92.26999664306641</v>
       </c>
       <c r="F143">
-        <v>91.66512298583984</v>
+        <v>91.36985015869141</v>
       </c>
       <c r="G143">
         <v>44999100</v>
@@ -3708,7 +3708,7 @@
         <v>92.98999786376953</v>
       </c>
       <c r="F144">
-        <v>92.38040161132812</v>
+        <v>92.08282470703125</v>
       </c>
       <c r="G144">
         <v>34423800</v>
@@ -3731,7 +3731,7 @@
         <v>93.48999786376953</v>
       </c>
       <c r="F145">
-        <v>92.87712097167969</v>
+        <v>92.57794952392578</v>
       </c>
       <c r="G145">
         <v>25801300</v>
@@ -3754,7 +3754,7 @@
         <v>93.84999847412109</v>
       </c>
       <c r="F146">
-        <v>93.23476409912109</v>
+        <v>92.93444061279297</v>
       </c>
       <c r="G146">
         <v>28169800</v>
@@ -3777,7 +3777,7 @@
         <v>94.80999755859375</v>
       </c>
       <c r="F147">
-        <v>94.18846893310547</v>
+        <v>93.88506317138672</v>
       </c>
       <c r="G147">
         <v>47445300</v>
@@ -3800,7 +3800,7 @@
         <v>95.30999755859375</v>
       </c>
       <c r="F148">
-        <v>95.00082397460938</v>
+        <v>94.69480895996094</v>
       </c>
       <c r="G148">
         <v>77254200</v>
@@ -3823,7 +3823,7 @@
         <v>98.27999877929688</v>
       </c>
       <c r="F149">
-        <v>97.96118927001953</v>
+        <v>97.64563751220703</v>
       </c>
       <c r="G149">
         <v>91912900</v>
@@ -3846,7 +3846,7 @@
         <v>98.80000305175781</v>
       </c>
       <c r="F150">
-        <v>98.47950744628906</v>
+        <v>98.16229248046875</v>
       </c>
       <c r="G150">
         <v>90686300</v>
@@ -3869,7 +3869,7 @@
         <v>96.58999633789062</v>
       </c>
       <c r="F151">
-        <v>96.27667236328125</v>
+        <v>95.96654510498047</v>
       </c>
       <c r="G151">
         <v>61316900</v>
@@ -3892,7 +3892,7 @@
         <v>95.91000366210938</v>
       </c>
       <c r="F152">
-        <v>95.59888458251953</v>
+        <v>95.29093933105469</v>
       </c>
       <c r="G152">
         <v>51337100</v>
@@ -3915,7 +3915,7 @@
         <v>95.31999969482422</v>
       </c>
       <c r="F153">
-        <v>95.01079559326172</v>
+        <v>94.70474243164062</v>
       </c>
       <c r="G153">
         <v>37815800</v>
@@ -3938,7 +3938,7 @@
         <v>96.26000213623047</v>
       </c>
       <c r="F154">
-        <v>95.94774627685547</v>
+        <v>95.63867950439453</v>
       </c>
       <c r="G154">
         <v>32141800</v>
@@ -3961,7 +3961,7 @@
         <v>96.61000061035156</v>
       </c>
       <c r="F155">
-        <v>96.29660797119141</v>
+        <v>95.98641967773438</v>
       </c>
       <c r="G155">
         <v>24261400</v>
@@ -3984,7 +3984,7 @@
         <v>97.27999877929688</v>
       </c>
       <c r="F156">
-        <v>96.96443939208984</v>
+        <v>96.65209197998047</v>
       </c>
       <c r="G156">
         <v>30366900</v>
@@ -4007,7 +4007,7 @@
         <v>97.88999938964844</v>
       </c>
       <c r="F157">
-        <v>97.57245635986328</v>
+        <v>97.25815582275391</v>
       </c>
       <c r="G157">
         <v>31334100</v>
@@ -4030,7 +4030,7 @@
         <v>97.09999847412109</v>
       </c>
       <c r="F158">
-        <v>96.78501892089844</v>
+        <v>96.47325134277344</v>
       </c>
       <c r="G158">
         <v>38723700</v>
@@ -4053,7 +4053,7 @@
         <v>97.44000244140625</v>
       </c>
       <c r="F159">
-        <v>97.12391662597656</v>
+        <v>96.81106567382812</v>
       </c>
       <c r="G159">
         <v>28541000</v>
@@ -4076,7 +4076,7 @@
         <v>97.88999938964844</v>
       </c>
       <c r="F160">
-        <v>97.57245635986328</v>
+        <v>97.25815582275391</v>
       </c>
       <c r="G160">
         <v>25322100</v>
@@ -4099,7 +4099,7 @@
         <v>98.66999816894531</v>
       </c>
       <c r="F161">
-        <v>98.34992980957031</v>
+        <v>98.03311920166016</v>
       </c>
       <c r="G161">
         <v>25239300</v>
@@ -4122,7 +4122,7 @@
         <v>98.73000335693359</v>
       </c>
       <c r="F162">
-        <v>98.40973663330078</v>
+        <v>98.09273529052734</v>
       </c>
       <c r="G162">
         <v>29230000</v>
@@ -4145,7 +4145,7 @@
         <v>97.75</v>
       </c>
       <c r="F163">
-        <v>97.43291473388672</v>
+        <v>97.11906433105469</v>
       </c>
       <c r="G163">
         <v>33453800</v>
@@ -4168,7 +4168,7 @@
         <v>98.38999938964844</v>
       </c>
       <c r="F164">
-        <v>98.07083892822266</v>
+        <v>97.75492858886719</v>
       </c>
       <c r="G164">
         <v>32005100</v>
@@ -4191,7 +4191,7 @@
         <v>98.13999938964844</v>
       </c>
       <c r="F165">
-        <v>97.82164764404297</v>
+        <v>97.50653839111328</v>
       </c>
       <c r="G165">
         <v>23198700</v>
@@ -4214,7 +4214,7 @@
         <v>97.97000122070312</v>
       </c>
       <c r="F166">
-        <v>97.65219879150391</v>
+        <v>97.33763885498047</v>
       </c>
       <c r="G166">
         <v>21507700</v>
@@ -4237,7 +4237,7 @@
         <v>97.84999847412109</v>
       </c>
       <c r="F167">
-        <v>97.53258514404297</v>
+        <v>97.21841430664062</v>
       </c>
       <c r="G167">
         <v>18501400</v>
@@ -4260,7 +4260,7 @@
         <v>97.52999877929688</v>
       </c>
       <c r="F168">
-        <v>97.213623046875</v>
+        <v>96.90048217773438</v>
       </c>
       <c r="G168">
         <v>24988200</v>
@@ -4283,7 +4283,7 @@
         <v>96.48999786376953</v>
       </c>
       <c r="F169">
-        <v>96.17699432373047</v>
+        <v>95.86719512939453</v>
       </c>
       <c r="G169">
         <v>42896200</v>
